--- a/app/tables/maleClients/forms/partner6Month/partner6Month.xlsx
+++ b/app/tables/maleClients/forms/partner6Month/partner6Month.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="2400" windowWidth="25040" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="430">
   <si>
     <t>type</t>
   </si>
@@ -1245,9 +1245,6 @@
   </si>
   <si>
     <t>display.hint</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>choice_list_name</t>
@@ -1519,7 +1516,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1591,15 +1588,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1609,10 +1597,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2031,11 +2037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2047,7 +2053,7 @@
     <col min="5" max="5" width="66" style="11" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" style="11" customWidth="1"/>
     <col min="7" max="8" width="13.83203125" style="11"/>
-    <col min="9" max="9" width="13.83203125" style="28"/>
+    <col min="9" max="9" width="13.83203125" style="25"/>
     <col min="10" max="16" width="13.83203125" style="11"/>
     <col min="17" max="16384" width="13.83203125" style="7"/>
   </cols>
@@ -2119,7 +2125,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="25"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -2137,7 +2143,7 @@
       <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="12">
       <c r="B4" s="17" t="s">
@@ -2149,7 +2155,7 @@
       <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="14" customFormat="1" ht="25">
       <c r="B5" s="17" t="s">
@@ -2164,8 +2170,8 @@
       <c r="F5" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>398</v>
+      <c r="I5" s="30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="195" customHeight="1">
@@ -2186,6 +2192,7 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -2211,7 +2218,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -2235,7 +2242,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -2261,7 +2268,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2285,7 +2292,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -2311,7 +2318,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2337,7 +2344,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -2363,7 +2370,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2391,7 +2398,7 @@
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2414,7 +2421,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2438,7 +2445,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2464,7 +2471,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -2490,7 +2497,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -2516,7 +2523,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2542,7 +2549,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -2568,7 +2575,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2594,7 +2601,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2618,7 +2625,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -2641,7 +2648,7 @@
       <c r="F24" t="s">
         <v>336</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="34"/>
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="2:18" customFormat="1" ht="12">
@@ -2657,7 +2664,7 @@
       <c r="E25" t="s">
         <v>337</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="34"/>
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="2:18" customFormat="1" ht="12">
@@ -2673,7 +2680,7 @@
       <c r="E26" t="s">
         <v>353</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="34"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="2:18" customFormat="1" ht="12">
@@ -2689,7 +2696,7 @@
       <c r="E27" t="s">
         <v>338</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="34"/>
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="2:18" customFormat="1" ht="12">
@@ -2702,7 +2709,7 @@
       <c r="E28" t="s">
         <v>350</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="34"/>
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="2:18" customFormat="1" ht="12">
@@ -2715,7 +2722,7 @@
       <c r="E29" t="s">
         <v>351</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="34"/>
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="2:18" customFormat="1" ht="12">
@@ -2728,7 +2735,7 @@
       <c r="E30" t="s">
         <v>352</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="34"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="2:18" customFormat="1" ht="24">
@@ -2747,7 +2754,7 @@
       <c r="F31" t="s">
         <v>340</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="34"/>
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="2:18" customFormat="1" ht="12">
@@ -2763,7 +2770,7 @@
       <c r="E32" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="34"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="2:17">
@@ -2782,7 +2789,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="32"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2806,7 +2813,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="32"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2829,7 +2836,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="30"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2846,7 +2853,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="30"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2863,7 +2870,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -2880,7 +2887,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="30"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -2897,7 +2904,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="30"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -2914,7 +2921,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="30"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -2931,7 +2938,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -2948,7 +2955,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="30"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -2965,7 +2972,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="30"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -2982,7 +2989,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="30"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -2999,7 +3006,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="30"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -3016,7 +3023,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="30"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -3033,7 +3040,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="30"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -3050,7 +3057,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="30"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -3067,7 +3074,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -3084,7 +3091,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -3101,7 +3108,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="27"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -3128,7 +3135,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="29"/>
+      <c r="I53" s="26"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
@@ -3153,7 +3160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3167,10 +3174,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>396</v>
@@ -3184,7 +3191,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>58</v>
@@ -3198,7 +3205,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>59</v>
@@ -3212,7 +3219,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>61</v>
@@ -3226,7 +3233,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>58</v>
@@ -3240,7 +3247,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>59</v>
@@ -3254,7 +3261,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>61</v>
@@ -3268,7 +3275,7 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>61</v>
@@ -3282,7 +3289,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>64</v>
@@ -3296,7 +3303,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>66</v>
@@ -3310,7 +3317,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>67</v>
@@ -3324,7 +3331,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
@@ -3338,7 +3345,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>70</v>
@@ -3352,7 +3359,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
@@ -3366,7 +3373,7 @@
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>72</v>
@@ -3380,7 +3387,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>73</v>
@@ -3394,7 +3401,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>74</v>
@@ -3408,7 +3415,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>75</v>
@@ -3422,7 +3429,7 @@
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>61</v>
@@ -3436,7 +3443,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>77</v>
@@ -3450,7 +3457,7 @@
         <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>78</v>
@@ -3464,7 +3471,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>79</v>
@@ -3478,7 +3485,7 @@
         <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>80</v>
@@ -3492,7 +3499,7 @@
         <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>81</v>
@@ -3506,7 +3513,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>82</v>
@@ -3520,7 +3527,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>83</v>
@@ -3534,7 +3541,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>84</v>
@@ -3548,7 +3555,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>85</v>
@@ -3562,7 +3569,7 @@
         <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>75</v>
@@ -3576,7 +3583,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>61</v>
@@ -3590,7 +3597,7 @@
         <v>86</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>87</v>
@@ -3604,7 +3611,7 @@
         <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>88</v>
@@ -3618,7 +3625,7 @@
         <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>89</v>
@@ -3632,7 +3639,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>90</v>
@@ -3646,7 +3653,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>91</v>
@@ -3660,7 +3667,7 @@
         <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>92</v>
@@ -3674,7 +3681,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>93</v>
@@ -3688,7 +3695,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>75</v>
@@ -3702,7 +3709,7 @@
         <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>61</v>
@@ -3716,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>96</v>
@@ -3730,7 +3737,7 @@
         <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>97</v>
@@ -3744,7 +3751,7 @@
         <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>98</v>
@@ -3758,7 +3765,7 @@
         <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>99</v>
@@ -3772,7 +3779,7 @@
         <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>61</v>
@@ -3786,7 +3793,7 @@
         <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>101</v>
@@ -3800,7 +3807,7 @@
         <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>102</v>
@@ -3814,7 +3821,7 @@
         <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>103</v>
@@ -3828,7 +3835,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>104</v>
@@ -3842,7 +3849,7 @@
         <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>105</v>
@@ -3856,7 +3863,7 @@
         <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>106</v>
@@ -3870,7 +3877,7 @@
         <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>61</v>
@@ -3884,7 +3891,7 @@
         <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>108</v>
@@ -3898,7 +3905,7 @@
         <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>109</v>
@@ -3912,7 +3919,7 @@
         <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>110</v>
@@ -3926,7 +3933,7 @@
         <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>111</v>
@@ -3940,7 +3947,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>113</v>
@@ -3954,7 +3961,7 @@
         <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>114</v>
@@ -3968,7 +3975,7 @@
         <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>115</v>
@@ -3982,7 +3989,7 @@
         <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>116</v>
@@ -3996,7 +4003,7 @@
         <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>118</v>
@@ -4010,7 +4017,7 @@
         <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>119</v>
@@ -4024,7 +4031,7 @@
         <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>58</v>
@@ -4038,7 +4045,7 @@
         <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>59</v>
@@ -4052,7 +4059,7 @@
         <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>61</v>
@@ -4066,7 +4073,7 @@
         <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>116</v>
@@ -4080,7 +4087,7 @@
         <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>122</v>
@@ -4094,7 +4101,7 @@
         <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>123</v>
@@ -4108,7 +4115,7 @@
         <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>124</v>
@@ -4122,7 +4129,7 @@
         <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>116</v>
@@ -4136,7 +4143,7 @@
         <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>126</v>
@@ -4150,7 +4157,7 @@
         <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>127</v>
@@ -4164,7 +4171,7 @@
         <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>116</v>
@@ -4178,7 +4185,7 @@
         <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>129</v>
@@ -4192,7 +4199,7 @@
         <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>130</v>
@@ -4206,7 +4213,7 @@
         <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>131</v>
@@ -4220,7 +4227,7 @@
         <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>132</v>
@@ -4234,7 +4241,7 @@
         <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>133</v>
@@ -4248,7 +4255,7 @@
         <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>75</v>
@@ -4262,7 +4269,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>61</v>
@@ -4273,7 +4280,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4281,7 +4288,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="B81" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -4292,7 +4299,7 @@
         <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>135</v>
@@ -4306,7 +4313,7 @@
         <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>137</v>
@@ -4320,7 +4327,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>138</v>
@@ -4334,7 +4341,7 @@
         <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>140</v>
@@ -4348,7 +4355,7 @@
         <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>141</v>
@@ -4362,7 +4369,7 @@
         <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>58</v>
@@ -4376,7 +4383,7 @@
         <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>59</v>
@@ -4390,7 +4397,7 @@
         <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>143</v>
@@ -4401,7 +4408,7 @@
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
       <c r="B90" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4409,7 +4416,7 @@
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1">
       <c r="B91" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4417,7 +4424,7 @@
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1">
       <c r="B92" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -4428,7 +4435,7 @@
         <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>118</v>
@@ -4442,7 +4449,7 @@
         <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>119</v>
@@ -4456,7 +4463,7 @@
         <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>145</v>
@@ -4470,7 +4477,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>146</v>
@@ -4481,7 +4488,7 @@
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
       <c r="B97" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4489,7 +4496,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
       <c r="B98" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -4500,7 +4507,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>148</v>
@@ -4514,7 +4521,7 @@
         <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>149</v>
@@ -4528,7 +4535,7 @@
         <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>150</v>
@@ -4542,7 +4549,7 @@
         <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>151</v>
@@ -4556,7 +4563,7 @@
         <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>152</v>
@@ -4570,7 +4577,7 @@
         <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>75</v>
@@ -4584,7 +4591,7 @@
         <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>61</v>
@@ -4595,7 +4602,7 @@
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1">
       <c r="B106" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4606,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>153</v>
@@ -4620,7 +4627,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>154</v>
@@ -4634,7 +4641,7 @@
         <v>22</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>155</v>
@@ -4648,7 +4655,7 @@
         <v>22</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>156</v>
@@ -4662,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>157</v>
@@ -4676,7 +4683,7 @@
         <v>22</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>158</v>
@@ -4690,7 +4697,7 @@
         <v>22</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>159</v>
@@ -4704,7 +4711,7 @@
         <v>22</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>160</v>
@@ -4718,7 +4725,7 @@
         <v>22</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>161</v>
@@ -4732,7 +4739,7 @@
         <v>22</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>75</v>
@@ -4746,7 +4753,7 @@
         <v>22</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>61</v>
@@ -4757,7 +4764,7 @@
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
       <c r="B118" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -4768,7 +4775,7 @@
         <v>23</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>162</v>
@@ -4782,7 +4789,7 @@
         <v>23</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>163</v>
@@ -4796,7 +4803,7 @@
         <v>23</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>164</v>
@@ -4810,7 +4817,7 @@
         <v>23</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>165</v>
@@ -4824,7 +4831,7 @@
         <v>23</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>166</v>
@@ -4838,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>167</v>
@@ -4852,7 +4859,7 @@
         <v>23</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>75</v>
@@ -4866,7 +4873,7 @@
         <v>23</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>168</v>
@@ -4880,7 +4887,7 @@
         <v>23</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>169</v>
@@ -4894,7 +4901,7 @@
         <v>23</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>61</v>
@@ -4905,7 +4912,7 @@
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1">
       <c r="B129" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4916,7 +4923,7 @@
         <v>170</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>171</v>
@@ -4930,7 +4937,7 @@
         <v>170</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>172</v>
@@ -4944,7 +4951,7 @@
         <v>170</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>173</v>
@@ -4958,7 +4965,7 @@
         <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>61</v>
@@ -4972,7 +4979,7 @@
         <v>170</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>116</v>
@@ -4983,7 +4990,7 @@
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1">
       <c r="B135" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4994,7 +5001,7 @@
         <v>174</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>119</v>
@@ -5008,7 +5015,7 @@
         <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>118</v>
@@ -5022,7 +5029,7 @@
         <v>174</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>175</v>
@@ -5036,7 +5043,7 @@
         <v>174</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>61</v>
@@ -5050,7 +5057,7 @@
         <v>174</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>342</v>
@@ -5061,7 +5068,7 @@
     </row>
     <row r="141" spans="1:6" ht="30" customHeight="1">
       <c r="B141" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5072,7 +5079,7 @@
         <v>346</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>344</v>
@@ -5086,7 +5093,7 @@
         <v>346</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>343</v>
@@ -5100,7 +5107,7 @@
         <v>346</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>345</v>
@@ -5114,7 +5121,7 @@
         <v>346</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>61</v>
@@ -5128,7 +5135,7 @@
         <v>177</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>344</v>
@@ -5142,7 +5149,7 @@
         <v>177</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>343</v>
@@ -5156,7 +5163,7 @@
         <v>177</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>61</v>
@@ -5170,7 +5177,7 @@
         <v>177</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>116</v>
@@ -5184,7 +5191,7 @@
         <v>50</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>178</v>
@@ -5198,7 +5205,7 @@
         <v>50</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>123</v>
@@ -5212,7 +5219,7 @@
         <v>50</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>124</v>
@@ -5226,7 +5233,7 @@
         <v>50</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>61</v>
@@ -5240,7 +5247,7 @@
         <v>50</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>116</v>
@@ -5251,7 +5258,7 @@
     </row>
     <row r="155" spans="1:6" ht="30" customHeight="1">
       <c r="B155" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5262,7 +5269,7 @@
         <v>52</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>126</v>
@@ -5276,7 +5283,7 @@
         <v>52</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>127</v>
@@ -5290,7 +5297,7 @@
         <v>52</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>116</v>
@@ -5304,7 +5311,7 @@
         <v>52</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>61</v>
@@ -5315,7 +5322,7 @@
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1">
       <c r="B160" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5326,7 +5333,7 @@
         <v>24</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>179</v>
@@ -5340,7 +5347,7 @@
         <v>24</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>180</v>
@@ -5354,7 +5361,7 @@
         <v>24</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>181</v>
@@ -5368,7 +5375,7 @@
         <v>24</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>182</v>
@@ -5382,7 +5389,7 @@
         <v>24</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>183</v>
@@ -5396,7 +5403,7 @@
         <v>24</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>184</v>
@@ -5410,7 +5417,7 @@
         <v>24</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>75</v>
@@ -5424,7 +5431,7 @@
         <v>24</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>61</v>
@@ -5435,7 +5442,7 @@
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="B169" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -5446,7 +5453,7 @@
         <v>25</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>185</v>
@@ -5460,7 +5467,7 @@
         <v>25</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>186</v>
@@ -5474,7 +5481,7 @@
         <v>25</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>187</v>
@@ -5488,7 +5495,7 @@
         <v>25</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>61</v>
@@ -5502,7 +5509,7 @@
         <v>25</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>116</v>
@@ -5513,7 +5520,7 @@
     </row>
     <row r="175" spans="1:6" ht="30" customHeight="1">
       <c r="B175" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -5524,7 +5531,7 @@
         <v>27</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>58</v>
@@ -5538,7 +5545,7 @@
         <v>27</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>59</v>
@@ -5552,7 +5559,7 @@
         <v>27</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>188</v>
@@ -5566,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>61</v>
@@ -5580,7 +5587,7 @@
         <v>27</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>189</v>
@@ -5591,7 +5598,7 @@
     </row>
     <row r="181" spans="1:6" ht="30" customHeight="1">
       <c r="B181" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -5602,7 +5609,7 @@
         <v>29</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>343</v>
@@ -5616,7 +5623,7 @@
         <v>29</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>345</v>
@@ -5630,7 +5637,7 @@
         <v>29</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>191</v>
@@ -5644,7 +5651,7 @@
         <v>29</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>61</v>
@@ -5658,7 +5665,7 @@
         <v>29</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>116</v>
@@ -5669,7 +5676,7 @@
     </row>
     <row r="187" spans="1:6" ht="30" customHeight="1">
       <c r="B187" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5680,7 +5687,7 @@
         <v>30</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>192</v>
@@ -5694,7 +5701,7 @@
         <v>30</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>193</v>
@@ -5708,7 +5715,7 @@
         <v>30</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>194</v>
@@ -5722,7 +5729,7 @@
         <v>30</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>61</v>
@@ -5736,7 +5743,7 @@
         <v>30</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>116</v>
@@ -5747,7 +5754,7 @@
     </row>
     <row r="193" spans="1:6" ht="30" customHeight="1">
       <c r="B193" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5758,7 +5765,7 @@
         <v>32</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>195</v>
@@ -5772,7 +5779,7 @@
         <v>32</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>196</v>
@@ -5786,7 +5793,7 @@
         <v>32</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>197</v>
@@ -5800,7 +5807,7 @@
         <v>32</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>198</v>
@@ -5814,7 +5821,7 @@
         <v>32</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>199</v>
@@ -5828,7 +5835,7 @@
         <v>32</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>75</v>
@@ -5842,7 +5849,7 @@
         <v>32</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>61</v>
@@ -5853,7 +5860,7 @@
     </row>
     <row r="201" spans="1:6" ht="30" customHeight="1">
       <c r="B201" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -5864,7 +5871,7 @@
         <v>35</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>200</v>
@@ -5878,7 +5885,7 @@
         <v>35</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>201</v>
@@ -5892,7 +5899,7 @@
         <v>35</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>202</v>
@@ -5906,7 +5913,7 @@
         <v>35</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>203</v>
@@ -5920,7 +5927,7 @@
         <v>35</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>204</v>
@@ -5934,7 +5941,7 @@
         <v>35</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>205</v>
@@ -5948,7 +5955,7 @@
         <v>35</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>206</v>
@@ -5962,7 +5969,7 @@
         <v>35</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>207</v>
@@ -5976,7 +5983,7 @@
         <v>35</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>208</v>
@@ -5990,7 +5997,7 @@
         <v>35</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>209</v>
@@ -6004,7 +6011,7 @@
         <v>35</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>210</v>
@@ -6018,7 +6025,7 @@
         <v>35</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>211</v>
@@ -6032,7 +6039,7 @@
         <v>35</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>212</v>
@@ -6046,7 +6053,7 @@
         <v>35</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>213</v>
@@ -6060,7 +6067,7 @@
         <v>35</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>75</v>
@@ -6074,7 +6081,7 @@
         <v>35</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>214</v>
@@ -6088,7 +6095,7 @@
         <v>35</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>61</v>
@@ -6099,7 +6106,7 @@
     </row>
     <row r="219" spans="1:6" ht="30" customHeight="1">
       <c r="B219" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -6110,7 +6117,7 @@
         <v>36</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>215</v>
@@ -6124,7 +6131,7 @@
         <v>36</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>216</v>
@@ -6138,7 +6145,7 @@
         <v>36</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>217</v>
@@ -6152,7 +6159,7 @@
         <v>36</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>218</v>
@@ -6166,7 +6173,7 @@
         <v>36</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>219</v>
@@ -6180,7 +6187,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>220</v>
@@ -6194,7 +6201,7 @@
         <v>36</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>221</v>
@@ -6208,7 +6215,7 @@
         <v>36</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>222</v>
@@ -6222,7 +6229,7 @@
         <v>36</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>223</v>
@@ -6236,7 +6243,7 @@
         <v>36</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>224</v>
@@ -6250,7 +6257,7 @@
         <v>36</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>225</v>
@@ -6264,7 +6271,7 @@
         <v>36</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>226</v>
@@ -6278,7 +6285,7 @@
         <v>36</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>227</v>
@@ -6292,7 +6299,7 @@
         <v>36</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>228</v>
@@ -6306,7 +6313,7 @@
         <v>36</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>75</v>
@@ -6320,7 +6327,7 @@
         <v>36</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>61</v>
@@ -6332,7 +6339,7 @@
     <row r="236" spans="1:6" ht="30" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -6343,7 +6350,7 @@
         <v>37</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>195</v>
@@ -6357,7 +6364,7 @@
         <v>37</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>196</v>
@@ -6371,7 +6378,7 @@
         <v>37</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>197</v>
@@ -6385,7 +6392,7 @@
         <v>37</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>198</v>
@@ -6399,7 +6406,7 @@
         <v>37</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>199</v>
@@ -6413,7 +6420,7 @@
         <v>37</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>75</v>
@@ -6427,7 +6434,7 @@
         <v>37</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>61</v>
@@ -6439,7 +6446,7 @@
     <row r="244" spans="1:6" ht="30" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -6450,7 +6457,7 @@
         <v>38</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>229</v>
@@ -6464,7 +6471,7 @@
         <v>38</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>230</v>
@@ -6478,7 +6485,7 @@
         <v>38</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>231</v>
@@ -6492,7 +6499,7 @@
         <v>38</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>61</v>
@@ -6503,7 +6510,7 @@
     </row>
     <row r="249" spans="1:6" ht="30" customHeight="1">
       <c r="B249" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6514,7 +6521,7 @@
         <v>39</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>232</v>
@@ -6528,7 +6535,7 @@
         <v>39</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>233</v>
@@ -6542,7 +6549,7 @@
         <v>39</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>234</v>
@@ -6556,7 +6563,7 @@
         <v>39</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>235</v>
@@ -6570,7 +6577,7 @@
         <v>39</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>229</v>
@@ -6584,7 +6591,7 @@
         <v>39</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>61</v>
@@ -6595,7 +6602,7 @@
     </row>
     <row r="256" spans="1:6" ht="30" customHeight="1">
       <c r="B256" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -6606,7 +6613,7 @@
         <v>40</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>113</v>
@@ -6620,7 +6627,7 @@
         <v>40</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>114</v>
@@ -6634,7 +6641,7 @@
         <v>40</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>115</v>
@@ -6648,7 +6655,7 @@
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>61</v>
@@ -6662,7 +6669,7 @@
         <v>40</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>116</v>
@@ -6673,7 +6680,7 @@
     </row>
     <row r="262" spans="1:6" ht="30" customHeight="1">
       <c r="B262" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -6684,7 +6691,7 @@
         <v>41</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>119</v>
@@ -6698,7 +6705,7 @@
         <v>41</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>118</v>
@@ -6712,7 +6719,7 @@
         <v>41</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>236</v>
@@ -6726,7 +6733,7 @@
         <v>41</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>61</v>
@@ -6737,7 +6744,7 @@
     </row>
     <row r="267" spans="1:6" ht="30" customHeight="1">
       <c r="B267" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -6748,7 +6755,7 @@
         <v>42</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>119</v>
@@ -6762,7 +6769,7 @@
         <v>42</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>118</v>
@@ -6776,7 +6783,7 @@
         <v>42</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>237</v>
@@ -6790,7 +6797,7 @@
         <v>42</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>61</v>
@@ -6801,7 +6808,7 @@
     </row>
     <row r="272" spans="1:6" ht="30" customHeight="1">
       <c r="B272" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -6812,7 +6819,7 @@
         <v>43</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>238</v>
@@ -6826,7 +6833,7 @@
         <v>43</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>239</v>
@@ -6840,7 +6847,7 @@
         <v>43</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>240</v>
@@ -6854,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>241</v>
@@ -6868,7 +6875,7 @@
         <v>43</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>75</v>
@@ -6882,7 +6889,7 @@
         <v>43</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>61</v>
@@ -6896,7 +6903,7 @@
         <v>43</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>116</v>
@@ -6907,14 +6914,14 @@
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1">
       <c r="B280" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1">
       <c r="A281" s="8"/>
       <c r="B281" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C281" s="8"/>
       <c r="E281" s="2"/>
@@ -6924,7 +6931,7 @@
         <v>243</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C282" t="s">
         <v>118</v>
@@ -6936,7 +6943,7 @@
         <v>243</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C283" t="s">
         <v>119</v>
@@ -6948,7 +6955,7 @@
         <v>243</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C284" t="s">
         <v>145</v>
@@ -6960,7 +6967,7 @@
         <v>243</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C285" t="s">
         <v>146</v>
@@ -6972,7 +6979,7 @@
         <v>244</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>140</v>
@@ -6984,7 +6991,7 @@
         <v>244</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>141</v>
@@ -6996,7 +7003,7 @@
         <v>245</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>246</v>
@@ -7008,7 +7015,7 @@
         <v>245</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>247</v>
@@ -7020,7 +7027,7 @@
         <v>245</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>248</v>
@@ -7032,7 +7039,7 @@
         <v>245</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>249</v>
@@ -7044,7 +7051,7 @@
         <v>245</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>250</v>
@@ -7056,7 +7063,7 @@
         <v>245</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>251</v>
@@ -7068,7 +7075,7 @@
         <v>252</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C294" t="s">
         <v>58</v>
@@ -7080,7 +7087,7 @@
         <v>252</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C295" t="s">
         <v>59</v>
@@ -7092,7 +7099,7 @@
         <v>252</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>251</v>
@@ -7104,7 +7111,7 @@
         <v>253</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>58</v>
@@ -7116,7 +7123,7 @@
         <v>253</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>172</v>
@@ -7128,7 +7135,7 @@
         <v>253</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>173</v>
@@ -7140,7 +7147,7 @@
         <v>253</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>61</v>
@@ -7152,7 +7159,7 @@
         <v>253</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>116</v>
@@ -7164,7 +7171,7 @@
         <v>254</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C302" t="s">
         <v>118</v>
@@ -7176,7 +7183,7 @@
         <v>254</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C303" t="s">
         <v>119</v>
@@ -7188,7 +7195,7 @@
         <v>254</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C304" t="s">
         <v>255</v>
@@ -7200,7 +7207,7 @@
         <v>254</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C305" t="s">
         <v>61</v>
@@ -7212,7 +7219,7 @@
         <v>254</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>116</v>
@@ -7224,7 +7231,7 @@
         <v>256</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C307" t="s">
         <v>58</v>
@@ -7236,7 +7243,7 @@
         <v>256</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C308" t="s">
         <v>59</v>
@@ -7248,7 +7255,7 @@
         <v>256</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>251</v>
@@ -7260,7 +7267,7 @@
         <v>256</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>116</v>
@@ -7272,7 +7279,7 @@
         <v>257</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C311" t="s">
         <v>258</v>
@@ -7284,7 +7291,7 @@
         <v>257</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C312" t="s">
         <v>259</v>
@@ -7296,7 +7303,7 @@
         <v>257</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>251</v>
@@ -7308,7 +7315,7 @@
         <v>257</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>116</v>
@@ -7320,7 +7327,7 @@
         <v>260</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C315" t="s">
         <v>261</v>
@@ -7332,7 +7339,7 @@
         <v>260</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C316" t="s">
         <v>123</v>
@@ -7344,7 +7351,7 @@
         <v>260</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C317" t="s">
         <v>124</v>
@@ -7356,7 +7363,7 @@
         <v>260</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>251</v>
@@ -7368,7 +7375,7 @@
         <v>260</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C319" s="8" t="s">
         <v>116</v>
@@ -7380,7 +7387,7 @@
         <v>262</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C320" s="8" t="s">
         <v>126</v>
@@ -7392,7 +7399,7 @@
         <v>262</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>263</v>
@@ -7404,7 +7411,7 @@
         <v>262</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>264</v>
@@ -7416,7 +7423,7 @@
         <v>262</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>265</v>
@@ -7428,7 +7435,7 @@
         <v>262</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>251</v>
@@ -7440,7 +7447,7 @@
         <v>262</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>116</v>
@@ -7452,7 +7459,7 @@
         <v>266</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C326" t="s">
         <v>267</v>
@@ -7464,7 +7471,7 @@
         <v>266</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C327" t="s">
         <v>268</v>
@@ -7476,7 +7483,7 @@
         <v>266</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C328" t="s">
         <v>124</v>
@@ -7488,7 +7495,7 @@
         <v>266</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>251</v>
@@ -7500,7 +7507,7 @@
         <v>266</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>116</v>
@@ -7512,7 +7519,7 @@
         <v>269</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C331" t="s">
         <v>270</v>
@@ -7524,7 +7531,7 @@
         <v>269</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C332" t="s">
         <v>271</v>
@@ -7536,7 +7543,7 @@
         <v>269</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C333" t="s">
         <v>272</v>
@@ -7548,7 +7555,7 @@
         <v>269</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C334" t="s">
         <v>273</v>
@@ -7560,7 +7567,7 @@
         <v>269</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C335" t="s">
         <v>274</v>
@@ -7572,7 +7579,7 @@
         <v>269</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C336" t="s">
         <v>275</v>
@@ -7584,7 +7591,7 @@
         <v>269</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C337" t="s">
         <v>75</v>
@@ -7596,7 +7603,7 @@
         <v>269</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C338" t="s">
         <v>276</v>
@@ -7608,7 +7615,7 @@
         <v>277</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C339" t="s">
         <v>270</v>
@@ -7620,7 +7627,7 @@
         <v>277</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C340" t="s">
         <v>271</v>
@@ -7632,7 +7639,7 @@
         <v>277</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C341" t="s">
         <v>272</v>
@@ -7644,7 +7651,7 @@
         <v>277</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C342" t="s">
         <v>273</v>
@@ -7656,7 +7663,7 @@
         <v>277</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C343" t="s">
         <v>274</v>
@@ -7668,7 +7675,7 @@
         <v>277</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C344" t="s">
         <v>275</v>
@@ -7680,7 +7687,7 @@
         <v>277</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C345" t="s">
         <v>75</v>
@@ -7692,7 +7699,7 @@
         <v>277</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C346" t="s">
         <v>278</v>
@@ -7704,7 +7711,7 @@
         <v>277</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C347" t="s">
         <v>276</v>
@@ -7716,7 +7723,7 @@
         <v>279</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C348" t="s">
         <v>58</v>
@@ -7728,7 +7735,7 @@
         <v>279</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C349" t="s">
         <v>59</v>
@@ -7740,7 +7747,7 @@
         <v>279</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C350" t="s">
         <v>280</v>
@@ -7752,7 +7759,7 @@
         <v>279</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C351" s="8" t="s">
         <v>251</v>
@@ -7764,7 +7771,7 @@
         <v>279</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C352" s="8" t="s">
         <v>116</v>
@@ -7812,7 +7819,7 @@
         <v>281</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C356" s="8" t="s">
         <v>251</v>
@@ -7824,7 +7831,7 @@
         <v>281</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C357" s="8" t="s">
         <v>116</v>
@@ -7836,7 +7843,7 @@
         <v>284</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C358" t="s">
         <v>192</v>
@@ -7848,7 +7855,7 @@
         <v>284</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C359" t="s">
         <v>193</v>
@@ -7860,7 +7867,7 @@
         <v>284</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C360" s="8" t="s">
         <v>194</v>
@@ -7872,7 +7879,7 @@
         <v>284</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C361" s="8" t="s">
         <v>61</v>
@@ -7884,7 +7891,7 @@
         <v>284</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C362" s="8" t="s">
         <v>116</v>
@@ -7896,7 +7903,7 @@
         <v>285</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C363" s="8" t="s">
         <v>195</v>
@@ -7908,7 +7915,7 @@
         <v>285</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C364" s="8" t="s">
         <v>286</v>
@@ -7920,7 +7927,7 @@
         <v>285</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>287</v>
@@ -7932,7 +7939,7 @@
         <v>285</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>198</v>
@@ -7944,7 +7951,7 @@
         <v>285</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>199</v>
@@ -7956,7 +7963,7 @@
         <v>285</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>75</v>
@@ -7968,7 +7975,7 @@
         <v>285</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>61</v>
@@ -7980,7 +7987,7 @@
         <v>288</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C370" s="8" t="s">
         <v>200</v>
@@ -7992,7 +7999,7 @@
         <v>288</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C371" s="8" t="s">
         <v>201</v>
@@ -8004,7 +8011,7 @@
         <v>288</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>202</v>
@@ -8016,7 +8023,7 @@
         <v>288</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C373" s="8" t="s">
         <v>203</v>
@@ -8028,7 +8035,7 @@
         <v>288</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>204</v>
@@ -8040,7 +8047,7 @@
         <v>288</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C375" s="8" t="s">
         <v>205</v>
@@ -8052,7 +8059,7 @@
         <v>288</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C376" s="8" t="s">
         <v>206</v>
@@ -8064,7 +8071,7 @@
         <v>288</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C377" s="8" t="s">
         <v>207</v>
@@ -8076,7 +8083,7 @@
         <v>288</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C378" s="8" t="s">
         <v>208</v>
@@ -8088,7 +8095,7 @@
         <v>288</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C379" s="8" t="s">
         <v>209</v>
@@ -8100,7 +8107,7 @@
         <v>288</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C380" s="8" t="s">
         <v>210</v>
@@ -8112,7 +8119,7 @@
         <v>288</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>211</v>
@@ -8124,7 +8131,7 @@
         <v>288</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C382" s="8" t="s">
         <v>212</v>
@@ -8136,7 +8143,7 @@
         <v>288</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>213</v>
@@ -8148,7 +8155,7 @@
         <v>288</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C384" s="8" t="s">
         <v>75</v>
@@ -8160,7 +8167,7 @@
         <v>288</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C385" s="8" t="s">
         <v>214</v>
@@ -8172,7 +8179,7 @@
         <v>288</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>289</v>
@@ -8184,7 +8191,7 @@
         <v>290</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>291</v>
@@ -8196,7 +8203,7 @@
         <v>290</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C388" s="8" t="s">
         <v>292</v>
@@ -8208,7 +8215,7 @@
         <v>290</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C389" s="8" t="s">
         <v>293</v>
@@ -8220,7 +8227,7 @@
         <v>290</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C390" s="8" t="s">
         <v>294</v>
@@ -8232,7 +8239,7 @@
         <v>290</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>219</v>
@@ -8244,7 +8251,7 @@
         <v>290</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>220</v>
@@ -8256,7 +8263,7 @@
         <v>290</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>221</v>
@@ -8268,7 +8275,7 @@
         <v>290</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>222</v>
@@ -8280,7 +8287,7 @@
         <v>290</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C395" s="8" t="s">
         <v>223</v>
@@ -8292,7 +8299,7 @@
         <v>290</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>224</v>
@@ -8304,7 +8311,7 @@
         <v>290</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>225</v>
@@ -8316,7 +8323,7 @@
         <v>290</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>295</v>
@@ -8328,7 +8335,7 @@
         <v>290</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C399" s="8" t="s">
         <v>227</v>
@@ -8340,7 +8347,7 @@
         <v>290</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C400" s="8" t="s">
         <v>296</v>
@@ -8352,7 +8359,7 @@
         <v>290</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C401" s="8" t="s">
         <v>75</v>
@@ -8364,7 +8371,7 @@
         <v>290</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C402" s="8" t="s">
         <v>61</v>
@@ -8376,7 +8383,7 @@
         <v>297</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C403" s="8" t="s">
         <v>195</v>
@@ -8388,7 +8395,7 @@
         <v>297</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C404" s="8" t="s">
         <v>286</v>
@@ -8400,7 +8407,7 @@
         <v>297</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>287</v>
@@ -8412,7 +8419,7 @@
         <v>297</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>198</v>
@@ -8424,7 +8431,7 @@
         <v>297</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>199</v>
@@ -8436,7 +8443,7 @@
         <v>297</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C408" s="8" t="s">
         <v>75</v>
@@ -8448,7 +8455,7 @@
         <v>297</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>61</v>
@@ -8460,7 +8467,7 @@
         <v>298</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C410" s="8" t="s">
         <v>299</v>
@@ -8472,7 +8479,7 @@
         <v>298</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>300</v>
@@ -8484,7 +8491,7 @@
         <v>298</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>61</v>
@@ -8496,7 +8503,7 @@
         <v>298</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C413" s="8" t="s">
         <v>116</v>
@@ -8508,7 +8515,7 @@
         <v>301</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C414" s="8" t="s">
         <v>229</v>
@@ -8520,7 +8527,7 @@
         <v>301</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C415" s="8" t="s">
         <v>230</v>
@@ -8532,7 +8539,7 @@
         <v>301</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>231</v>
@@ -8544,7 +8551,7 @@
         <v>301</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C417" t="s">
         <v>61</v>
@@ -8556,7 +8563,7 @@
         <v>302</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C418" t="s">
         <v>95</v>
@@ -8568,7 +8575,7 @@
         <v>302</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C419" t="s">
         <v>200</v>
@@ -8580,7 +8587,7 @@
         <v>302</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C420" t="s">
         <v>201</v>
@@ -8592,7 +8599,7 @@
         <v>302</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C421" t="s">
         <v>202</v>
@@ -8604,7 +8611,7 @@
         <v>302</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C422" t="s">
         <v>203</v>
@@ -8616,7 +8623,7 @@
         <v>302</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C423" t="s">
         <v>204</v>
@@ -8628,7 +8635,7 @@
         <v>302</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C424" t="s">
         <v>205</v>
@@ -8640,7 +8647,7 @@
         <v>302</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C425" t="s">
         <v>206</v>
@@ -8652,7 +8659,7 @@
         <v>302</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C426" t="s">
         <v>207</v>
@@ -8664,7 +8671,7 @@
         <v>302</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C427" t="s">
         <v>208</v>
@@ -8676,7 +8683,7 @@
         <v>302</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C428" t="s">
         <v>209</v>
@@ -8688,7 +8695,7 @@
         <v>302</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C429" t="s">
         <v>210</v>
@@ -8700,7 +8707,7 @@
         <v>302</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C430" t="s">
         <v>211</v>
@@ -8712,7 +8719,7 @@
         <v>302</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C431" t="s">
         <v>212</v>
@@ -8724,7 +8731,7 @@
         <v>302</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C432" t="s">
         <v>75</v>
@@ -8736,7 +8743,7 @@
         <v>302</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C433" t="s">
         <v>61</v>
@@ -8748,7 +8755,7 @@
         <v>303</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C434" t="s">
         <v>304</v>
@@ -8760,7 +8767,7 @@
         <v>303</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C435" t="s">
         <v>233</v>
@@ -8772,7 +8779,7 @@
         <v>303</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C436" t="s">
         <v>234</v>
@@ -8784,7 +8791,7 @@
         <v>303</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C437" t="s">
         <v>235</v>
@@ -8796,7 +8803,7 @@
         <v>303</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C438" t="s">
         <v>229</v>
@@ -8808,7 +8815,7 @@
         <v>303</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C439" t="s">
         <v>61</v>
@@ -8820,7 +8827,7 @@
         <v>305</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C440" t="s">
         <v>306</v>
@@ -8832,7 +8839,7 @@
         <v>305</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C441" t="s">
         <v>307</v>
@@ -8844,7 +8851,7 @@
         <v>305</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C442" t="s">
         <v>239</v>
@@ -8856,7 +8863,7 @@
         <v>305</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C443" t="s">
         <v>240</v>
@@ -8868,7 +8875,7 @@
         <v>305</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C444" t="s">
         <v>241</v>
@@ -8880,7 +8887,7 @@
         <v>305</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C445" t="s">
         <v>75</v>
@@ -8892,7 +8899,7 @@
         <v>305</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C446" t="s">
         <v>61</v>
@@ -8904,7 +8911,7 @@
         <v>305</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C447" t="s">
         <v>116</v>
@@ -8916,7 +8923,7 @@
         <v>308</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C448" t="s">
         <v>309</v>
@@ -8928,7 +8935,7 @@
         <v>308</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C449" t="s">
         <v>310</v>
@@ -8940,7 +8947,7 @@
         <v>308</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C450" t="s">
         <v>61</v>
@@ -8952,7 +8959,7 @@
         <v>311</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C451" t="s">
         <v>119</v>
@@ -8964,7 +8971,7 @@
         <v>311</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C452" t="s">
         <v>118</v>
@@ -8976,7 +8983,7 @@
         <v>311</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C453" t="s">
         <v>312</v>
@@ -8988,7 +8995,7 @@
         <v>311</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C454" t="s">
         <v>61</v>
@@ -9000,7 +9007,7 @@
         <v>313</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C455" t="s">
         <v>314</v>
@@ -9012,7 +9019,7 @@
         <v>313</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C456" t="s">
         <v>315</v>
@@ -9024,7 +9031,7 @@
         <v>313</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C457" t="s">
         <v>316</v>
@@ -9036,7 +9043,7 @@
         <v>313</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C458" t="s">
         <v>59</v>
@@ -9048,7 +9055,7 @@
         <v>313</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C459" t="s">
         <v>61</v>
@@ -9060,7 +9067,7 @@
         <v>313</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C460" t="s">
         <v>116</v>
@@ -9072,7 +9079,7 @@
         <v>317</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C461" t="s">
         <v>318</v>
@@ -9084,7 +9091,7 @@
         <v>317</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C462" t="s">
         <v>319</v>
@@ -9096,7 +9103,7 @@
         <v>317</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C463" t="s">
         <v>320</v>
@@ -9108,7 +9115,7 @@
         <v>317</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C464" t="s">
         <v>321</v>
@@ -9120,7 +9127,7 @@
         <v>317</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C465" t="s">
         <v>75</v>
@@ -9132,7 +9139,7 @@
         <v>317</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C466" t="s">
         <v>61</v>
@@ -9144,7 +9151,7 @@
         <v>322</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C467" t="s">
         <v>323</v>
@@ -9156,7 +9163,7 @@
         <v>322</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C468" t="s">
         <v>324</v>
@@ -9168,7 +9175,7 @@
         <v>322</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C469" t="s">
         <v>325</v>
@@ -9180,7 +9187,7 @@
         <v>322</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C470" t="s">
         <v>326</v>
@@ -9192,7 +9199,7 @@
         <v>322</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C471" t="s">
         <v>327</v>
@@ -9204,7 +9211,7 @@
         <v>322</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C472" t="s">
         <v>61</v>
@@ -9216,7 +9223,7 @@
         <v>322</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C473" t="s">
         <v>116</v>
@@ -9228,7 +9235,7 @@
         <v>328</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C474" t="s">
         <v>318</v>
@@ -9240,7 +9247,7 @@
         <v>328</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C475" t="s">
         <v>329</v>
@@ -9252,7 +9259,7 @@
         <v>328</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C476" t="s">
         <v>330</v>
@@ -9264,7 +9271,7 @@
         <v>328</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C477" t="s">
         <v>61</v>
@@ -9276,7 +9283,7 @@
         <v>328</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C478" t="s">
         <v>116</v>
@@ -9288,7 +9295,7 @@
         <v>331</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C479" t="s">
         <v>140</v>
@@ -9300,7 +9307,7 @@
         <v>331</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C480" t="s">
         <v>141</v>
@@ -9312,7 +9319,7 @@
         <v>332</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C481" t="s">
         <v>140</v>
@@ -9324,7 +9331,7 @@
         <v>332</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C482" t="s">
         <v>141</v>
@@ -9336,7 +9343,7 @@
         <v>332</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C483" t="s">
         <v>333</v>
@@ -9348,7 +9355,7 @@
         <v>334</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C484" t="s">
         <v>58</v>
@@ -9360,7 +9367,7 @@
         <v>334</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C485" t="s">
         <v>59</v>
@@ -9372,7 +9379,7 @@
         <v>334</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C486" t="s">
         <v>335</v>
@@ -9384,7 +9391,7 @@
         <v>334</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C487" t="s">
         <v>143</v>
@@ -9396,7 +9403,7 @@
         <v>347</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>348</v>
@@ -9408,7 +9415,7 @@
         <v>347</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>61</v>
@@ -9438,13 +9445,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9464,7 +9471,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" s="2">
         <v>20140513</v>
@@ -9476,11 +9483,11 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9488,10 +9495,10 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
